--- a/docs/ScreenDesign.xlsx
+++ b/docs/ScreenDesign.xlsx
@@ -16,8 +16,8 @@
     <sheet state="visible" name="進捗内容編集・完了画面" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="新規進捗追加登録画面" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="ユーザー管理画面" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="エラー画面1" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="エラー画面2" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="エラー画面-404" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="エラー画面-エラーハンドリング時" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="権限エラー画面" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>画面名</t>
   </si>
@@ -298,16 +298,13 @@
     <t>- ユーザーを削除可能</t>
   </si>
   <si>
-    <t>エラー画面1</t>
-  </si>
-  <si>
-    <t>/error/**</t>
+    <t>エラー画面-404</t>
   </si>
   <si>
     <t>- 404などのエラーの場合も表示</t>
   </si>
   <si>
-    <t>エラー画面2</t>
+    <t>エラー画面-エラーハンドリング時</t>
   </si>
   <si>
     <t>- 各エラー発生時、エラーハンドリングによって表示内容を変更</t>
@@ -673,7 +670,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image10.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -706,7 +703,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -739,7 +736,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -772,7 +769,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -800,12 +797,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -833,12 +830,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -871,7 +868,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image6.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -937,7 +934,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -970,7 +967,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1003,7 +1000,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1036,7 +1033,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1069,7 +1066,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image14.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1102,7 +1099,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1135,7 +1132,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2610,11 +2607,9 @@
       <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -2627,11 +2622,11 @@
     </row>
     <row r="82">
       <c r="A82" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="28"/>
       <c r="C82" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
@@ -2644,13 +2639,13 @@
     </row>
     <row r="83">
       <c r="A83" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="C83" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
@@ -3592,8 +3587,8 @@
     <hyperlink display="進捗内容編集・完了画面" location="'進捗内容編集・完了画面'!A1" ref="A59"/>
     <hyperlink display="新規進捗追加登録画面" location="'新規進捗追加登録画面'!A1" ref="A71"/>
     <hyperlink display="ユーザー管理画面" location="'ユーザー管理画面'!A1" ref="A77"/>
-    <hyperlink display="エラー画面1" location="'エラー画面1'!A1" ref="A81"/>
-    <hyperlink display="エラー画面2" location="'エラー画面2'!A1" ref="A82"/>
+    <hyperlink display="エラー画面-404" location="'エラー画面-404'!A1" ref="A81"/>
+    <hyperlink display="エラー画面-エラーハンドリング時" location="'エラー画面-エラーハンドリング時'!A1" ref="A82"/>
     <hyperlink display="権限エラー画面" location="'権限エラー画面'!A1" ref="A83"/>
   </hyperlinks>
   <drawing r:id="rId1"/>
@@ -3612,7 +3607,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3635,7 +3630,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3653,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3681,7 +3676,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3699,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3722,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3750,7 +3745,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3768,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3791,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3814,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3837,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3860,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3883,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3911,7 +3906,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +3929,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ScreenDesign.xlsx
+++ b/docs/ScreenDesign.xlsx
@@ -16,9 +16,11 @@
     <sheet state="visible" name="進捗内容編集・完了画面" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="新規進捗追加登録画面" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="ユーザー管理画面" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="エラー画面-404" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="エラー画面-エラーハンドリング時" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="権限エラー画面" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="パスワードリセット申請画面" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="パスワードリセット時パスワード変更画面" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="エラー画面-404" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="エラー画面-エラーハンドリング時" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="権限エラー画面" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>画面名</t>
   </si>
@@ -296,6 +298,30 @@
   </si>
   <si>
     <t>- ユーザーを削除可能</t>
+  </si>
+  <si>
+    <t>パスワードリセット申請画面</t>
+  </si>
+  <si>
+    <t>/forget_password</t>
+  </si>
+  <si>
+    <t>- ログインページから遷移可能</t>
+  </si>
+  <si>
+    <t>- メールアドレスを入力する</t>
+  </si>
+  <si>
+    <t>- メールにパスワードリセット用トークン付URLが送られる</t>
+  </si>
+  <si>
+    <t>パスワードリセット時パスワード変更画面</t>
+  </si>
+  <si>
+    <t>/user/change_password</t>
+  </si>
+  <si>
+    <t>- パスワードリセットのトークン認証を行う</t>
   </si>
   <si>
     <t>エラー画面-404</t>
@@ -326,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -364,6 +390,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -394,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border/>
     <border>
       <left style="thin">
@@ -541,6 +572,36 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -573,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -623,27 +684,69 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -703,7 +806,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -736,7 +839,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -769,7 +872,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -795,9 +898,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
@@ -824,6 +927,72 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9848850" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image8.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9848850" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -856,7 +1025,139 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9848850" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9820275" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image17.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9848850" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9848850" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image15.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -889,138 +1190,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9820275" cy="5295900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9848850" cy="5295900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9848850" cy="5295900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9848850" cy="5295900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -1033,7 +1202,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image11.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1099,7 +1268,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image16.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1132,7 +1301,7 @@
     <xdr:ext cx="9848850" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image12.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1357,7 +1526,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="27.63"/>
+    <col customWidth="1" min="1" max="1" width="32.63"/>
+    <col customWidth="1" min="2" max="2" width="27.63"/>
     <col customWidth="1" min="3" max="3" width="10.38"/>
     <col hidden="1" min="12" max="28" width="12.63"/>
   </cols>
@@ -2603,68 +2773,188 @@
       <c r="J80" s="15"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81">
+    <row r="81" ht="15.0" customHeight="1">
       <c r="A81" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="27" t="s">
+      <c r="C81" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="14" t="s">
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="29"/>
+    </row>
+    <row r="82" ht="15.0" customHeight="1">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="16"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="29" t="s">
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="33"/>
+    </row>
+    <row r="83" ht="15.0" customHeight="1">
+      <c r="A83" s="30"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="37"/>
+    </row>
+    <row r="84" ht="15.0" customHeight="1">
+      <c r="A84" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="B84" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="32"/>
-    </row>
-    <row r="84" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="85" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="86" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="87" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="88" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="89" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="90" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="91" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="92" ht="15.0" hidden="1" customHeight="1"/>
+      <c r="C84" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29"/>
+    </row>
+    <row r="85" ht="15.0" customHeight="1">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="33"/>
+    </row>
+    <row r="86" ht="15.0" customHeight="1">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="33"/>
+    </row>
+    <row r="87" ht="15.0" customHeight="1">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="33"/>
+    </row>
+    <row r="88" ht="15.0" customHeight="1">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="37"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="39"/>
+      <c r="C89" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="41"/>
+      <c r="C90" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="45"/>
+    </row>
+    <row r="92" ht="15.0" customHeight="1"/>
     <row r="93" ht="15.0" hidden="1" customHeight="1"/>
     <row r="94" ht="15.0" hidden="1" customHeight="1"/>
     <row r="95" ht="15.0" hidden="1" customHeight="1"/>
@@ -3574,6 +3864,32 @@
     <row r="999" hidden="1"/>
     <row r="1000" hidden="1"/>
     <row r="1001" hidden="1"/>
+    <row r="1002" hidden="1">
+      <c r="A1002" s="46"/>
+      <c r="B1002" s="46"/>
+      <c r="C1002" s="46"/>
+    </row>
+    <row r="1003" hidden="1">
+      <c r="C1003" s="46"/>
+    </row>
+    <row r="1004" hidden="1">
+      <c r="C1004" s="46"/>
+    </row>
+    <row r="1005" hidden="1">
+      <c r="C1005" s="46"/>
+    </row>
+    <row r="1006" hidden="1">
+      <c r="C1006" s="46"/>
+    </row>
+    <row r="1007" hidden="1">
+      <c r="C1007" s="46"/>
+    </row>
+    <row r="1008" hidden="1">
+      <c r="C1008" s="46"/>
+    </row>
+    <row r="1009" hidden="1"/>
+    <row r="1010" hidden="1"/>
+    <row r="1011" hidden="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink display="ログイン画面" location="'ログイン画面'!A1" ref="A2"/>
@@ -3587,9 +3903,11 @@
     <hyperlink display="進捗内容編集・完了画面" location="'進捗内容編集・完了画面'!A1" ref="A59"/>
     <hyperlink display="新規進捗追加登録画面" location="'新規進捗追加登録画面'!A1" ref="A71"/>
     <hyperlink display="ユーザー管理画面" location="'ユーザー管理画面'!A1" ref="A77"/>
-    <hyperlink display="エラー画面-404" location="'エラー画面-404'!A1" ref="A81"/>
-    <hyperlink display="エラー画面-エラーハンドリング時" location="'エラー画面-エラーハンドリング時'!A1" ref="A82"/>
-    <hyperlink display="権限エラー画面" location="'権限エラー画面'!A1" ref="A83"/>
+    <hyperlink display="パスワードリセット申請画面" location="'パスワードリセット申請画面'!A1" ref="A81"/>
+    <hyperlink display="パスワードリセット時パスワード変更画面" location="'パスワードリセット時パスワード変更画面'!A1" ref="A84"/>
+    <hyperlink display="エラー画面-404" location="'エラー画面-404'!A1" ref="A89"/>
+    <hyperlink display="エラー画面-エラーハンドリング時" location="'エラー画面-エラーハンドリング時'!A1" ref="A90"/>
+    <hyperlink display="権限エラー画面" location="'権限エラー画面'!A1" ref="A91"/>
   </hyperlinks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3606,8 +3924,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3629,8 +3947,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3652,8 +3970,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3675,8 +3993,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3698,8 +4016,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3721,8 +4039,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3744,8 +4062,54 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="戻る" location="'画面仕様'!A1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="戻る" location="'画面仕様'!A1" ref="A1"/>
+  </hyperlinks>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3767,8 +4131,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3790,8 +4154,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3813,8 +4177,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3836,8 +4200,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3859,8 +4223,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3882,8 +4246,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3905,8 +4269,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3928,8 +4292,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="s">
-        <v>97</v>
+      <c r="A1" s="47" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
